--- a/input/匯率表.xlsx
+++ b/input/匯率表.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="匯率表" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="匯率表2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="匯率表" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t xml:space="preserve">幣別</t>
   </si>
@@ -209,8 +210,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -233,8 +238,230 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.44921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.240207</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1.223579</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.565156</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.460023</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>93.760174</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>93.778443</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2.577179</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>3.009723</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>6327.05</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2243.62</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>607.46349</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>348.4043</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>7.81427</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>62.009388</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>18.871895</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1955.92</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>1.95592</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -270,171 +497,6 @@
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.565156</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.460023</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>93.760174</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>93.778443</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>2.577179</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>3.009723</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>6327.05</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>2243.62</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>607.46349</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>348.4043</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>7.81427</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>62.009388</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>18.871895</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>1955.92</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>1.95592</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/input/匯率表.xlsx
+++ b/input/匯率表.xlsx
@@ -5,11 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="匯率表2" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="匯率表" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="匯率表" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">幣別</t>
   </si>
@@ -210,12 +209,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -238,230 +233,8 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>0.240207</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1.223579</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>0.565156</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>0.460023</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>93.760174</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>93.778443</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>2.577179</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>3.009723</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>6327.05</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>2243.62</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>607.46349</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>348.4043</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>7.81427</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>62.009388</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>18.871895</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>1955.92</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>1.95592</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff頁 &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -497,6 +270,171 @@
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.565156</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.460023</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>93.760174</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>93.778443</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>2.577179</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3.009723</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>6327.05</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2243.62</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>607.46349</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>348.4043</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>7.81427</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>62.009388</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>18.871895</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1955.92</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1.95592</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/input/匯率表.xlsx
+++ b/input/匯率表.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\chiisen\min_bet.ts\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C84108-E981-4CA1-B9E3-87B769E230A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3538BA93-04A8-480F-A3F7-071B0194332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="匯率表" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">匯率表!$A$1:$C$21</definedName>
+  </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>幣別</t>
   </si>
@@ -36,17 +39,131 @@
     <t>匯率名稱</t>
   </si>
   <si>
-    <t>MMK2</t>
-  </si>
-  <si>
-    <t>緬幣2</t>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>NIO</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>DKK</t>
+  </si>
+  <si>
+    <t>DOP</t>
+  </si>
+  <si>
+    <t>ILS</t>
+  </si>
+  <si>
+    <t>MOP</t>
+  </si>
+  <si>
+    <t>VEF</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>PYG</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>DZD</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>VES</t>
+  </si>
+  <si>
+    <t>LRD</t>
+  </si>
+  <si>
+    <t>BZD</t>
+  </si>
+  <si>
+    <t>亞美尼亞德拉姆</t>
+  </si>
+  <si>
+    <t>阿根廷披索</t>
+  </si>
+  <si>
+    <t>阿聯酋迪拉姆</t>
+  </si>
+  <si>
+    <t>玻利維亞玻利維亞諾</t>
+  </si>
+  <si>
+    <t>伯利茲元</t>
+  </si>
+  <si>
+    <t>智利披索</t>
+  </si>
+  <si>
+    <t>哥倫比亞披索</t>
+  </si>
+  <si>
+    <t>丹麥克朗</t>
+  </si>
+  <si>
+    <t>多米尼加披索</t>
+  </si>
+  <si>
+    <t>阿爾及利亞第納爾</t>
+  </si>
+  <si>
+    <t>英鎊</t>
+  </si>
+  <si>
+    <t>以色列謝克爾</t>
+  </si>
+  <si>
+    <t>利比里亞元</t>
+  </si>
+  <si>
+    <t>摩洛哥迪拉姆</t>
+  </si>
+  <si>
+    <t>澳門幣</t>
+  </si>
+  <si>
+    <t>尼加拉瓜科多巴</t>
+  </si>
+  <si>
+    <t>巴拉圭瓜拉尼</t>
+  </si>
+  <si>
+    <t>沙地阿拉伯利雅</t>
+  </si>
+  <si>
+    <t>委內瑞拉玻利瓦</t>
+  </si>
+  <si>
+    <t>委內瑞拉玻利瓦爾</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -60,16 +177,36 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,12 +214,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -397,37 +561,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.54857299999999998</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <v>61.129322999999999</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>18.677599000000001</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3">
+        <v>138.42153999999999</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>615.07879000000003</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.0631299999999999</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.160482</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>21.899182</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>0.27850799999999998</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B12" s="3">
+        <v>0.12310400000000001</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.51782700000000004</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3">
+        <v>22.67</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.5166040000000001</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.207489</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5.3725120000000004</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1030.8399999999999</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B19" s="3">
+        <v>0.56017700000000004</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="4">
+        <v>82215.929999999993</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.82215899999999997</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C21" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
+      <sortCondition ref="A1:A21"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/input/匯率表.xlsx
+++ b/input/匯率表.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\chiisen\min_bet.ts\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3538BA93-04A8-480F-A3F7-071B0194332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC271BC-368E-480E-8566-39313BCB7661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="匯率表" sheetId="1" r:id="rId1"/>
+    <sheet name="匯率表" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">匯率表!$A$1:$C$21</definedName>
-  </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>幣別</t>
   </si>
@@ -39,124 +36,22 @@
     <t>匯率名稱</t>
   </si>
   <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>SAR</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>NIO</t>
-  </si>
-  <si>
-    <t>ARS</t>
-  </si>
-  <si>
-    <t>DKK</t>
-  </si>
-  <si>
-    <t>DOP</t>
-  </si>
-  <si>
-    <t>ILS</t>
-  </si>
-  <si>
-    <t>MOP</t>
-  </si>
-  <si>
-    <t>VEF</t>
-  </si>
-  <si>
-    <t>COP</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>PYG</t>
-  </si>
-  <si>
-    <t>MAD</t>
-  </si>
-  <si>
-    <t>BOB</t>
-  </si>
-  <si>
-    <t>DZD</t>
-  </si>
-  <si>
-    <t>CLP</t>
-  </si>
-  <si>
-    <t>VES</t>
-  </si>
-  <si>
-    <t>LRD</t>
-  </si>
-  <si>
-    <t>BZD</t>
-  </si>
-  <si>
-    <t>亞美尼亞德拉姆</t>
-  </si>
-  <si>
-    <t>阿根廷披索</t>
-  </si>
-  <si>
-    <t>阿聯酋迪拉姆</t>
-  </si>
-  <si>
-    <t>玻利維亞玻利維亞諾</t>
-  </si>
-  <si>
-    <t>伯利茲元</t>
-  </si>
-  <si>
-    <t>智利披索</t>
-  </si>
-  <si>
-    <t>哥倫比亞披索</t>
-  </si>
-  <si>
-    <t>丹麥克朗</t>
-  </si>
-  <si>
-    <t>多米尼加披索</t>
-  </si>
-  <si>
-    <t>阿爾及利亞第納爾</t>
-  </si>
-  <si>
-    <t>英鎊</t>
-  </si>
-  <si>
-    <t>以色列謝克爾</t>
-  </si>
-  <si>
-    <t>利比里亞元</t>
-  </si>
-  <si>
-    <t>摩洛哥迪拉姆</t>
-  </si>
-  <si>
-    <t>澳門幣</t>
-  </si>
-  <si>
-    <t>尼加拉瓜科多巴</t>
-  </si>
-  <si>
-    <t>巴拉圭瓜拉尼</t>
-  </si>
-  <si>
-    <t>沙地阿拉伯利雅</t>
-  </si>
-  <si>
-    <t>委內瑞拉玻利瓦</t>
-  </si>
-  <si>
-    <t>委內瑞拉玻利瓦爾</t>
+    <t>ZWD</t>
+  </si>
+  <si>
+    <t>津巴布韋元</t>
+  </si>
+  <si>
+    <t>納米比亞元</t>
+  </si>
+  <si>
+    <t>阿里亞里</t>
+  </si>
+  <si>
+    <t>MGA</t>
+  </si>
+  <si>
+    <t>NAD</t>
   </si>
 </sst>
 </file>
@@ -233,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,9 +137,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,19 +452,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69411EED-BCB2-4108-BF28-62747F6952D5}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20:C21"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -588,24 +480,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>0.54857299999999998</v>
+        <v>51.2241</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>61.129322999999999</v>
+        <v>2.4186899999999998</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,211 +505,15 @@
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>18.677599000000001</v>
+        <v>612.75199999999995</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.02</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3">
-        <v>138.42153999999999</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3">
-        <v>615.07879000000003</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1.0631299999999999</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>8.160482</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3">
-        <v>21.899182</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.12310400000000001</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.51782700000000004</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3">
-        <v>22.67</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1.5166040000000001</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1.207489</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B17" s="3">
-        <v>5.3725120000000004</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1030.8399999999999</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.56017700000000004</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="4">
-        <v>82215.929999999993</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.82215899999999997</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C21" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
-      <sortCondition ref="A1:A21"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff頁 &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/匯率表.xlsx
+++ b/input/匯率表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\chiisen\min_bet.ts\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55CFC53-B57A-46CB-ADD8-C15C2E3F2642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6D6747-2D1E-488F-B1CF-788097E307CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t>幣別</t>
   </si>
@@ -36,10 +36,712 @@
     <t>匯率名稱</t>
   </si>
   <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>阿聯酋迪拉姆</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>亞美尼亞德拉姆</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>阿根廷披索</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>澳洲元</t>
+  </si>
+  <si>
+    <t>AUD2</t>
+  </si>
+  <si>
+    <t>澳洲元2</t>
+  </si>
+  <si>
     <t>AZN</t>
   </si>
   <si>
     <t>阿塞拜疆馬納特</t>
+  </si>
+  <si>
+    <t>BDT</t>
+  </si>
+  <si>
+    <t>孟加拉塔卡</t>
+  </si>
+  <si>
+    <t>BGN</t>
+  </si>
+  <si>
+    <t>保加利亞列弗</t>
+  </si>
+  <si>
+    <t>BND</t>
+  </si>
+  <si>
+    <t>文萊元</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>玻利維亞玻利維亞諾</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>巴西雷亞爾</t>
+  </si>
+  <si>
+    <t>BZD</t>
+  </si>
+  <si>
+    <t>伯利茲元</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>加拿大元</t>
+  </si>
+  <si>
+    <t>CAD2</t>
+  </si>
+  <si>
+    <t>加拿大元2</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>瑞士法郎</t>
+  </si>
+  <si>
+    <t>CHF2</t>
+  </si>
+  <si>
+    <t>瑞士法郎2</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>智利披索</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>人民幣</t>
+  </si>
+  <si>
+    <t>CNY2</t>
+  </si>
+  <si>
+    <t>人民幣2</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>哥倫比亞披索</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>哥斯達尼加科朗</t>
+  </si>
+  <si>
+    <t>CZK</t>
+  </si>
+  <si>
+    <t>捷克克朗</t>
+  </si>
+  <si>
+    <t>DKK</t>
+  </si>
+  <si>
+    <t>丹麥克朗</t>
+  </si>
+  <si>
+    <t>DOG</t>
+  </si>
+  <si>
+    <t>加密货币-DOG</t>
+  </si>
+  <si>
+    <t>DOP</t>
+  </si>
+  <si>
+    <t>多米尼加披索</t>
+  </si>
+  <si>
+    <t>DZD</t>
+  </si>
+  <si>
+    <t>阿爾及利亞第納爾</t>
+  </si>
+  <si>
+    <t>ETB</t>
+  </si>
+  <si>
+    <t>埃塞俄比亞比爾</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>歐元</t>
+  </si>
+  <si>
+    <t>EUR2</t>
+  </si>
+  <si>
+    <t>歐元2</t>
+  </si>
+  <si>
+    <t>FIM</t>
+  </si>
+  <si>
+    <t>Finnish Markka</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>英鎊</t>
+  </si>
+  <si>
+    <t>GBP2</t>
+  </si>
+  <si>
+    <t>英鎊2</t>
+  </si>
+  <si>
+    <t>GEL</t>
+  </si>
+  <si>
+    <t>格魯吉亞拉里</t>
+  </si>
+  <si>
+    <t>GHS</t>
+  </si>
+  <si>
+    <t>加納塞地</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>港元</t>
+  </si>
+  <si>
+    <t>HKD2</t>
+  </si>
+  <si>
+    <t>港元2</t>
+  </si>
+  <si>
+    <t>HNL</t>
+  </si>
+  <si>
+    <t>洪都拉斯倫皮拉</t>
+  </si>
+  <si>
+    <t>HRK</t>
+  </si>
+  <si>
+    <t>克羅地亞庫納</t>
+  </si>
+  <si>
+    <t>HUF</t>
+  </si>
+  <si>
+    <t>匈牙利福林</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>印尼盾</t>
+  </si>
+  <si>
+    <t>IDR2</t>
+  </si>
+  <si>
+    <t>印尼盾2</t>
+  </si>
+  <si>
+    <t>IDS</t>
+  </si>
+  <si>
+    <t>加密货币-IDS</t>
+  </si>
+  <si>
+    <t>ILS</t>
+  </si>
+  <si>
+    <t>以色列謝克爾</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>印度盧比</t>
+  </si>
+  <si>
+    <t>INR2</t>
+  </si>
+  <si>
+    <t>印度盧比2</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>伊朗里亞爾</t>
+  </si>
+  <si>
+    <t>ISK</t>
+  </si>
+  <si>
+    <t>冰島克朗</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>日本圓</t>
+  </si>
+  <si>
+    <t>JPY2</t>
+  </si>
+  <si>
+    <t>日本圓2</t>
+  </si>
+  <si>
+    <t>KBB</t>
+  </si>
+  <si>
+    <t>客戶-金爸爸(betGold)</t>
+  </si>
+  <si>
+    <t>KES</t>
+  </si>
+  <si>
+    <t>肯雅先令</t>
+  </si>
+  <si>
+    <t>KGS</t>
+  </si>
+  <si>
+    <t>吉爾吉斯索姆</t>
+  </si>
+  <si>
+    <t>KHR</t>
+  </si>
+  <si>
+    <t>柬埔寨里爾</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>韓元</t>
+  </si>
+  <si>
+    <t>KRW2</t>
+  </si>
+  <si>
+    <t>韓元2</t>
+  </si>
+  <si>
+    <t>KZT</t>
+  </si>
+  <si>
+    <t>哈薩克堅戈</t>
+  </si>
+  <si>
+    <t>LAK</t>
+  </si>
+  <si>
+    <t>寮國基普</t>
+  </si>
+  <si>
+    <t>LKR</t>
+  </si>
+  <si>
+    <t>斯里蘭卡盧比</t>
+  </si>
+  <si>
+    <t>LRD</t>
+  </si>
+  <si>
+    <t>利比里亞元</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>摩洛哥迪拉姆</t>
+  </si>
+  <si>
+    <t>MDL</t>
+  </si>
+  <si>
+    <t>摩爾多瓦列伊</t>
+  </si>
+  <si>
+    <t>MMK</t>
+  </si>
+  <si>
+    <t>緬幣</t>
+  </si>
+  <si>
+    <t>MMK2</t>
+  </si>
+  <si>
+    <t>緬幣2</t>
+  </si>
+  <si>
+    <t>MNT</t>
+  </si>
+  <si>
+    <t>蒙古圖格里克</t>
+  </si>
+  <si>
+    <t>MOP</t>
+  </si>
+  <si>
+    <t>澳門幣</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
+    <t>墨西哥披索</t>
+  </si>
+  <si>
+    <t>MYR</t>
+  </si>
+  <si>
+    <t>馬來西亞令吉</t>
+  </si>
+  <si>
+    <t>MYR2</t>
+  </si>
+  <si>
+    <t>馬來西亞令吉2</t>
+  </si>
+  <si>
+    <t>NGN</t>
+  </si>
+  <si>
+    <t>尼日利亞奈拉</t>
+  </si>
+  <si>
+    <t>NIO</t>
+  </si>
+  <si>
+    <t>尼加拉瓜科多巴</t>
+  </si>
+  <si>
+    <t>NLG</t>
+  </si>
+  <si>
+    <t>Dutch Guilder</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>挪威克朗</t>
+  </si>
+  <si>
+    <t>NOK2</t>
+  </si>
+  <si>
+    <t>挪威克朗2</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>尼泊爾盧比</t>
+  </si>
+  <si>
+    <t>NTD</t>
+  </si>
+  <si>
+    <t>客戶-富大爺(UAT)</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>新西蘭元</t>
+  </si>
+  <si>
+    <t>NZD2</t>
+  </si>
+  <si>
+    <t>新西蘭元2</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>秘魯索爾</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>菲律賓披索</t>
+  </si>
+  <si>
+    <t>PHP2</t>
+  </si>
+  <si>
+    <t>菲律賓披索2</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>波蘭茲羅提</t>
+  </si>
+  <si>
+    <t>PYG</t>
+  </si>
+  <si>
+    <t>巴拉圭瓜拉尼</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>羅馬尼亞新列伊</t>
+  </si>
+  <si>
+    <t>RSD</t>
+  </si>
+  <si>
+    <t>塞爾維亞第納爾</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>俄羅斯盧布</t>
+  </si>
+  <si>
+    <t>RUP</t>
+  </si>
+  <si>
+    <t>加密货币-RUP</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>沙地阿拉伯利雅</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>瑞典克朗</t>
+  </si>
+  <si>
+    <t>SEK2</t>
+  </si>
+  <si>
+    <t>瑞典克朗2</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>新加坡元</t>
+  </si>
+  <si>
+    <t>SGD2</t>
+  </si>
+  <si>
+    <t>新加坡元2</t>
+  </si>
+  <si>
+    <t>THB</t>
+  </si>
+  <si>
+    <t>泰國銖</t>
+  </si>
+  <si>
+    <t>THB2</t>
+  </si>
+  <si>
+    <t>泰國銖2</t>
+  </si>
+  <si>
+    <t>TND</t>
+  </si>
+  <si>
+    <t>突尼西亞第納爾</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>土耳其里拉</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>新台幣</t>
+  </si>
+  <si>
+    <t>TZS</t>
+  </si>
+  <si>
+    <t>坦桑尼亞先令</t>
+  </si>
+  <si>
+    <t>UAH</t>
+  </si>
+  <si>
+    <t>烏克蘭格里夫納</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>USD2</t>
+  </si>
+  <si>
+    <t>美元2</t>
+  </si>
+  <si>
+    <t>USDT</t>
+  </si>
+  <si>
+    <t>加密货币-USDT</t>
+  </si>
+  <si>
+    <t>UYU</t>
+  </si>
+  <si>
+    <t>烏拉圭披索</t>
+  </si>
+  <si>
+    <t>VDO</t>
+  </si>
+  <si>
+    <t>加密货币-VDO</t>
+  </si>
+  <si>
+    <t>VEF</t>
+  </si>
+  <si>
+    <t>委內瑞拉玻利瓦</t>
+  </si>
+  <si>
+    <t>VES</t>
+  </si>
+  <si>
+    <t>委內瑞拉玻利瓦爾</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>越南盾</t>
+  </si>
+  <si>
+    <t>VND2</t>
+  </si>
+  <si>
+    <t>越南盾2</t>
+  </si>
+  <si>
+    <t>VNS</t>
+  </si>
+  <si>
+    <t>加密货币-VNS</t>
+  </si>
+  <si>
+    <t>XAF</t>
+  </si>
+  <si>
+    <t>中非共和國非洲財政共同體法郎</t>
+  </si>
+  <si>
+    <t>XOF</t>
+  </si>
+  <si>
+    <t>非洲財政共同體法郎</t>
+  </si>
+  <si>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t>南非蘭特</t>
+  </si>
+  <si>
+    <t>ZAR2</t>
+  </si>
+  <si>
+    <t>南非蘭特2</t>
+  </si>
+  <si>
+    <t>ZMW</t>
+  </si>
+  <si>
+    <t>贊比亞克瓦查</t>
+  </si>
+  <si>
+    <t>SLL</t>
+  </si>
+  <si>
+    <t>獅子山的利昂</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>獅子山的利昂 1:1000</t>
+  </si>
+  <si>
+    <t>ZWD</t>
+  </si>
+  <si>
+    <t>津巴布韋元</t>
+  </si>
+  <si>
+    <t>NAD</t>
+  </si>
+  <si>
+    <t>納米比亞元</t>
+  </si>
+  <si>
+    <t>MGA</t>
+  </si>
+  <si>
+    <t>阿里亞里</t>
   </si>
 </sst>
 </file>
@@ -397,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD111"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -421,10 +1123,1297 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.25378899999999999</v>
+        <v>0.54857299999999998</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>61.129322999999999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>18.677599000000001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.216665</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2.1599999999999999E-4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.25378899999999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>13.932520999999999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.27945700000000001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0.20776900000000001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1.02</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>0.77401699999999996</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>0.3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>0.19243099999999999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>1.92E-4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>0.142487</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>1.4200000000000001E-4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>138.42153999999999</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>1E-3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>615.07879000000003</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>103.24766</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>3.5347789999999999</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>1.0631299999999999</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>1.223579</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>8.160482</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <v>21.899182</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>7.8142699999999996</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>0.14290700000000001</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30">
+        <v>1.4200000000000001E-4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31">
+        <v>0.84969099999999997</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32">
+        <v>0.12310400000000001</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33">
+        <v>1.2300000000000001E-4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34">
+        <v>0.43905699999999998</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>1.1976450000000001</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36">
+        <v>1.172099</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37">
+        <v>1.1720000000000001E-3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38">
+        <v>3.6824210000000002</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39">
+        <v>1.075947</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40">
+        <v>56.294342</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41">
+        <v>2220.19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42">
+        <v>2.2201870000000001</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43">
+        <v>2.3700700000000001</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44">
+        <v>0.51782700000000004</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45">
+        <v>11.783842999999999</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46">
+        <v>1.1783E-2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47">
+        <v>6327.05</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48">
+        <v>19.937564999999999</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49">
+        <v>20.408073999999999</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50">
+        <v>2.0407999999999999E-2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51">
+        <v>573.86215800000002</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52">
+        <v>17.600272</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53">
+        <v>11.876369</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54">
+        <v>607.46348999999998</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55">
+        <v>193.92475999999999</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56">
+        <v>0.19392400000000001</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57">
+        <v>69.938070999999994</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58">
+        <v>2243.62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59">
+        <v>53.399526000000002</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60">
+        <v>22.67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61">
+        <v>1.5166040000000001</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62">
+        <v>2.8786309999999999</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63">
+        <v>278.50857999999999</v>
+      </c>
+      <c r="C63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64">
+        <v>0.27850799999999998</v>
+      </c>
+      <c r="C64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65">
+        <v>469.44308999999998</v>
+      </c>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66">
+        <v>1.207489</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67">
+        <v>3.0097230000000001</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68">
+        <v>0.65789299999999995</v>
+      </c>
+      <c r="C68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69">
+        <v>6.5700000000000003E-4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70">
+        <v>62.009388000000001</v>
+      </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71">
+        <v>5.3725120000000004</v>
+      </c>
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73">
+        <v>1.475468</v>
+      </c>
+      <c r="C73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74">
+        <v>1.475E-3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75">
+        <v>18.871894999999999</v>
+      </c>
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76">
+        <v>441.3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77">
+        <v>0.240207</v>
+      </c>
+      <c r="C77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79">
+        <v>0.56515599999999999</v>
+      </c>
+      <c r="C79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80">
+        <v>8.1940380000000008</v>
+      </c>
+      <c r="C80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81">
+        <v>8.1939999999999999E-3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82">
+        <v>0.667466</v>
+      </c>
+      <c r="C82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83">
+        <v>1030.8399999999999</v>
+      </c>
+      <c r="C83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84">
+        <v>0.70635000000000003</v>
+      </c>
+      <c r="C84" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85">
+        <v>16.783677999999998</v>
+      </c>
+      <c r="C85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86">
+        <v>7.927378</v>
+      </c>
+      <c r="C86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87">
+        <v>42.857754999999997</v>
+      </c>
+      <c r="C87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88">
+        <v>0.56017700000000004</v>
+      </c>
+      <c r="C88" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89">
+        <v>1.5276639999999999</v>
+      </c>
+      <c r="C89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90">
+        <v>1.5269999999999999E-3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91">
+        <v>0.20786499999999999</v>
+      </c>
+      <c r="C91" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92">
+        <v>2.0699999999999999E-4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93">
+        <v>5.2745980000000001</v>
+      </c>
+      <c r="C93" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94">
+        <v>5.274E-3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95">
+        <v>0.46002300000000002</v>
+      </c>
+      <c r="C95" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96">
+        <v>2.4861550000000001</v>
+      </c>
+      <c r="C96" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97">
+        <v>4.446885</v>
+      </c>
+      <c r="C97" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98">
+        <v>348.40429999999998</v>
+      </c>
+      <c r="C98" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99">
+        <v>4.4119650000000004</v>
+      </c>
+      <c r="C99" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100">
+        <v>0.14935000000000001</v>
+      </c>
+      <c r="C100" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101">
+        <v>1.4899999999999999E-4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102">
+        <v>0.154192</v>
+      </c>
+      <c r="C102" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103">
+        <v>5.8381309999999997</v>
+      </c>
+      <c r="C103" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104">
+        <v>3.3108900000000001</v>
+      </c>
+      <c r="C104" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105">
+        <v>82215.929999999993</v>
+      </c>
+      <c r="C105" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106">
+        <v>0.82215899999999997</v>
+      </c>
+      <c r="C106" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107">
+        <v>3478.5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108">
+        <v>3.4784950000000001</v>
+      </c>
+      <c r="C108" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109">
+        <v>3.3108900000000001</v>
+      </c>
+      <c r="C109" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110">
+        <v>93.760174000000006</v>
+      </c>
+      <c r="C110" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111">
+        <v>93.778442999999996</v>
+      </c>
+      <c r="C111" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112">
+        <v>2.4306019999999999</v>
+      </c>
+      <c r="C112" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114">
+        <v>2.5771790000000001</v>
+      </c>
+      <c r="C114" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115">
+        <v>1955.92</v>
+      </c>
+      <c r="C115" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116">
+        <v>1.9559200000000001</v>
+      </c>
+      <c r="C116" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117">
+        <v>51.2241</v>
+      </c>
+      <c r="C117" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118">
+        <v>2.4186899999999998</v>
+      </c>
+      <c r="C118" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119">
+        <v>612.75199999999995</v>
+      </c>
+      <c r="C119" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
